--- a/test_data_record-emily-annot.xlsx
+++ b/test_data_record-emily-annot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>A Child's Garden of Verses</t>
   </si>
@@ -1004,21 +1004,6 @@
     <t>Timothy's Quest</t>
   </si>
   <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Emily - Annotations</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Toni, the Little Woodcarver</t>
   </si>
   <si>
@@ -1106,6 +1091,57 @@
   </si>
   <si>
     <t>L. Frank Baum</t>
+  </si>
+  <si>
+    <t>The Lost Princess of Oz</t>
+  </si>
+  <si>
+    <t>The Magic of Oz</t>
+  </si>
+  <si>
+    <t>The Marvelous Land of Oz</t>
+  </si>
+  <si>
+    <t>Mary Louise</t>
+  </si>
+  <si>
+    <t>Edith Van Dyne</t>
+  </si>
+  <si>
+    <t>Mary Louise in the Country</t>
+  </si>
+  <si>
+    <t>A Wonder-book for Girls and Boys: The Miraculous Pitcher</t>
+  </si>
+  <si>
+    <t>My name is pop</t>
+  </si>
+  <si>
+    <t>ADDED hathitrust</t>
+  </si>
+  <si>
+    <t>A Wonder-book for Girls and Boys: The Paradise of Children</t>
+  </si>
+  <si>
+    <t>Five Little Peppers Midway</t>
+  </si>
+  <si>
+    <t>The Adventures of Poor Mrs. Quack</t>
+  </si>
+  <si>
+    <t>The Adventures of Prickly Porky</t>
+  </si>
+  <si>
+    <t>The Adventures of Reddy Fox</t>
+  </si>
+  <si>
+    <t>What Sami Sings with the Birds</t>
+  </si>
+  <si>
+    <t>The Master Key</t>
+  </si>
+  <si>
+    <t>A Wonder-book for Girls and Boys: The Three Golden Apples</t>
   </si>
 </sst>
 </file>
@@ -2459,14 +2495,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8359" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
@@ -2571,7 +2607,9 @@
       <c r="B8" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D8" t="s" s="3">
         <v>19</v>
       </c>
@@ -3078,7 +3116,9 @@
       <c r="B45" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D45" t="s" s="3">
         <v>83</v>
       </c>
@@ -3089,7 +3129,9 @@
       <c r="B46" t="s" s="3">
         <v>84</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D46" t="s" s="3">
         <v>83</v>
       </c>
@@ -3100,7 +3142,9 @@
       <c r="B47" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D47" t="s" s="3">
         <v>83</v>
       </c>
@@ -3111,7 +3155,9 @@
       <c r="B48" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D48" t="s" s="3">
         <v>83</v>
       </c>
@@ -3433,7 +3479,9 @@
       <c r="B72" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D72" t="s" s="3">
         <v>17</v>
       </c>
@@ -3457,7 +3505,9 @@
       <c r="B74" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D74" t="s" s="3">
         <v>19</v>
       </c>
@@ -3468,7 +3518,9 @@
       <c r="B75" t="s" s="3">
         <v>122</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D75" t="s" s="3">
         <v>17</v>
       </c>
@@ -3479,7 +3531,9 @@
       <c r="B76" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D76" t="s" s="3">
         <v>22</v>
       </c>
@@ -3490,7 +3544,9 @@
       <c r="B77" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D77" t="s" s="3">
         <v>13</v>
       </c>
@@ -3503,7 +3559,9 @@
       <c r="B78" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="3">
         <v>27</v>
@@ -3514,7 +3572,9 @@
       <c r="B79" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D79" t="s" s="3">
         <v>63</v>
       </c>
@@ -3525,7 +3585,9 @@
       <c r="B80" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D80" t="s" s="3">
         <v>13</v>
       </c>
@@ -3536,7 +3598,9 @@
       <c r="B81" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D81" t="s" s="3">
         <v>96</v>
       </c>
@@ -3547,7 +3611,9 @@
       <c r="B82" t="s" s="3">
         <v>130</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="3">
         <v>27</v>
@@ -3558,7 +3624,9 @@
       <c r="B83" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D83" t="s" s="3">
         <v>9</v>
       </c>
@@ -3569,7 +3637,9 @@
       <c r="B84" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D84" t="s" s="3">
         <v>9</v>
       </c>
@@ -3580,7 +3650,9 @@
       <c r="B85" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" t="s" s="3">
+        <v>3</v>
+      </c>
       <c r="D85" t="s" s="3">
         <v>19</v>
       </c>
@@ -3591,7 +3663,9 @@
       <c r="B86" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D86" t="s" s="3">
         <v>96</v>
       </c>
@@ -3602,7 +3676,9 @@
       <c r="B87" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D87" t="s" s="3">
         <v>22</v>
       </c>
@@ -3613,7 +3689,9 @@
       <c r="B88" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D88" t="s" s="3">
         <v>49</v>
       </c>
@@ -3624,7 +3702,9 @@
       <c r="B89" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D89" t="s" s="3">
         <v>49</v>
       </c>
@@ -3635,7 +3715,9 @@
       <c r="B90" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D90" t="s" s="3">
         <v>49</v>
       </c>
@@ -3646,7 +3728,9 @@
       <c r="B91" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D91" t="s" s="3">
         <v>9</v>
       </c>
@@ -3657,7 +3741,9 @@
       <c r="B92" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D92" t="s" s="3">
         <v>49</v>
       </c>
@@ -3668,7 +3754,9 @@
       <c r="B93" t="s" s="3">
         <v>141</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D93" t="s" s="3">
         <v>17</v>
       </c>
@@ -3679,7 +3767,9 @@
       <c r="B94" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="3">
         <v>27</v>
@@ -3690,7 +3780,9 @@
       <c r="B95" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D95" t="s" s="3">
         <v>96</v>
       </c>
@@ -3701,7 +3793,9 @@
       <c r="B96" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D96" t="s" s="3">
         <v>81</v>
       </c>
@@ -3712,7 +3806,9 @@
       <c r="B97" t="s" s="3">
         <v>145</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D97" t="s" s="3">
         <v>19</v>
       </c>
@@ -3723,7 +3819,9 @@
       <c r="B98" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D98" t="s" s="3">
         <v>49</v>
       </c>
@@ -3734,7 +3832,9 @@
       <c r="B99" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D99" t="s" s="3">
         <v>49</v>
       </c>
@@ -3745,7 +3845,9 @@
       <c r="B100" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D100" t="s" s="3">
         <v>9</v>
       </c>
@@ -3778,7 +3880,9 @@
       <c r="B103" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D103" t="s" s="3">
         <v>22</v>
       </c>
@@ -3789,7 +3893,9 @@
       <c r="B104" t="s" s="3">
         <v>152</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="3">
         <v>27</v>
@@ -3839,7 +3945,9 @@
       <c r="B108" t="s" s="3">
         <v>156</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D108" t="s" s="3">
         <v>96</v>
       </c>
@@ -3850,7 +3958,9 @@
       <c r="B109" t="s" s="3">
         <v>157</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D109" t="s" s="3">
         <v>158</v>
       </c>
@@ -3861,7 +3971,9 @@
       <c r="B110" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D110" t="s" s="3">
         <v>160</v>
       </c>
@@ -3872,7 +3984,9 @@
       <c r="B111" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D111" t="s" s="3">
         <v>160</v>
       </c>
@@ -3883,7 +3997,9 @@
       <c r="B112" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="C112" s="2"/>
+      <c r="C112" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D112" t="s" s="3">
         <v>110</v>
       </c>
@@ -3894,7 +4010,9 @@
       <c r="B113" t="s" s="3">
         <v>163</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D113" t="s" s="3">
         <v>164</v>
       </c>
@@ -3907,7 +4025,9 @@
       <c r="B114" t="s" s="3">
         <v>166</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="3">
         <v>27</v>
@@ -3918,7 +4038,9 @@
       <c r="B115" t="s" s="3">
         <v>167</v>
       </c>
-      <c r="C115" s="2"/>
+      <c r="C115" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D115" t="s" s="3">
         <v>17</v>
       </c>
@@ -3929,7 +4051,9 @@
       <c r="B116" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D116" t="s" s="3">
         <v>31</v>
       </c>
@@ -3940,7 +4064,9 @@
       <c r="B117" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D117" t="s" s="3">
         <v>96</v>
       </c>
@@ -3951,7 +4077,9 @@
       <c r="B118" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D118" t="s" s="3">
         <v>63</v>
       </c>
@@ -3962,7 +4090,9 @@
       <c r="B119" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="C119" s="2"/>
+      <c r="C119" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D119" t="s" s="3">
         <v>31</v>
       </c>
@@ -3973,7 +4103,9 @@
       <c r="B120" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="C120" s="2"/>
+      <c r="C120" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D120" t="s" s="3">
         <v>22</v>
       </c>
@@ -3984,7 +4116,9 @@
       <c r="B121" t="s" s="3">
         <v>173</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D121" t="s" s="3">
         <v>13</v>
       </c>
@@ -3995,7 +4129,9 @@
       <c r="B122" t="s" s="3">
         <v>174</v>
       </c>
-      <c r="C122" s="2"/>
+      <c r="C122" t="s" s="3">
+        <v>3</v>
+      </c>
       <c r="D122" t="s" s="3">
         <v>96</v>
       </c>
@@ -4017,7 +4153,9 @@
       <c r="B124" t="s" s="3">
         <v>176</v>
       </c>
-      <c r="C124" s="2"/>
+      <c r="C124" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D124" t="s" s="3">
         <v>13</v>
       </c>
@@ -4028,7 +4166,9 @@
       <c r="B125" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="C125" s="2"/>
+      <c r="C125" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D125" t="s" s="3">
         <v>9</v>
       </c>
@@ -4039,7 +4179,9 @@
       <c r="B126" t="s" s="3">
         <v>178</v>
       </c>
-      <c r="C126" s="2"/>
+      <c r="C126" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D126" t="s" s="3">
         <v>22</v>
       </c>
@@ -4052,7 +4194,9 @@
       <c r="B127" t="s" s="3">
         <v>180</v>
       </c>
-      <c r="C127" s="2"/>
+      <c r="C127" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="3">
         <v>27</v>
@@ -4063,7 +4207,9 @@
       <c r="B128" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D128" t="s" s="3">
         <v>96</v>
       </c>
@@ -4074,7 +4220,9 @@
       <c r="B129" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D129" t="s" s="3">
         <v>183</v>
       </c>
@@ -4163,7 +4311,9 @@
       <c r="B136" t="s" s="3">
         <v>190</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D136" t="s" s="3">
         <v>49</v>
       </c>
@@ -4174,7 +4324,9 @@
       <c r="B137" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="C137" s="2"/>
+      <c r="C137" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D137" t="s" s="3">
         <v>49</v>
       </c>
@@ -4185,7 +4337,9 @@
       <c r="B138" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="C138" s="2"/>
+      <c r="C138" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D138" t="s" s="3">
         <v>49</v>
       </c>
@@ -4354,7 +4508,9 @@
       <c r="B151" t="s" s="3">
         <v>205</v>
       </c>
-      <c r="C151" s="2"/>
+      <c r="C151" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D151" t="s" s="3">
         <v>22</v>
       </c>
@@ -4471,7 +4627,9 @@
       <c r="B160" t="s" s="3">
         <v>216</v>
       </c>
-      <c r="C160" s="2"/>
+      <c r="C160" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D160" t="s" s="3">
         <v>110</v>
       </c>
@@ -4569,7 +4727,9 @@
       <c r="B168" t="s" s="3">
         <v>226</v>
       </c>
-      <c r="C168" s="2"/>
+      <c r="C168" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D168" t="s" s="3">
         <v>17</v>
       </c>
@@ -4593,7 +4753,9 @@
       <c r="B170" t="s" s="3">
         <v>228</v>
       </c>
-      <c r="C170" s="2"/>
+      <c r="C170" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D170" t="s" s="3">
         <v>81</v>
       </c>
@@ -4604,7 +4766,9 @@
       <c r="B171" t="s" s="3">
         <v>229</v>
       </c>
-      <c r="C171" s="2"/>
+      <c r="C171" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D171" t="s" s="3">
         <v>13</v>
       </c>
@@ -4615,7 +4779,9 @@
       <c r="B172" t="s" s="3">
         <v>230</v>
       </c>
-      <c r="C172" s="2"/>
+      <c r="C172" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D172" t="s" s="3">
         <v>6</v>
       </c>
@@ -4626,7 +4792,9 @@
       <c r="B173" t="s" s="3">
         <v>231</v>
       </c>
-      <c r="C173" s="2"/>
+      <c r="C173" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D173" t="s" s="3">
         <v>160</v>
       </c>
@@ -4637,7 +4805,9 @@
       <c r="B174" t="s" s="3">
         <v>232</v>
       </c>
-      <c r="C174" s="2"/>
+      <c r="C174" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D174" t="s" s="3">
         <v>22</v>
       </c>
@@ -4648,7 +4818,9 @@
       <c r="B175" t="s" s="3">
         <v>233</v>
       </c>
-      <c r="C175" s="2"/>
+      <c r="C175" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D175" t="s" s="3">
         <v>9</v>
       </c>
@@ -4659,7 +4831,9 @@
       <c r="B176" t="s" s="3">
         <v>234</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D176" t="s" s="3">
         <v>81</v>
       </c>
@@ -4670,7 +4844,9 @@
       <c r="B177" t="s" s="3">
         <v>235</v>
       </c>
-      <c r="C177" s="2"/>
+      <c r="C177" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D177" t="s" s="3">
         <v>160</v>
       </c>
@@ -4681,7 +4857,9 @@
       <c r="B178" t="s" s="3">
         <v>236</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D178" t="s" s="3">
         <v>39</v>
       </c>
@@ -4692,7 +4870,9 @@
       <c r="B179" t="s" s="3">
         <v>237</v>
       </c>
-      <c r="C179" s="2"/>
+      <c r="C179" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D179" t="s" s="3">
         <v>39</v>
       </c>
@@ -4703,7 +4883,9 @@
       <c r="B180" t="s" s="3">
         <v>238</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D180" t="s" s="3">
         <v>81</v>
       </c>
@@ -4725,7 +4907,9 @@
       <c r="B182" t="s" s="3">
         <v>240</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D182" t="s" s="3">
         <v>160</v>
       </c>
@@ -4747,7 +4931,9 @@
       <c r="B184" t="s" s="3">
         <v>243</v>
       </c>
-      <c r="C184" s="2"/>
+      <c r="C184" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D184" t="s" s="3">
         <v>22</v>
       </c>
@@ -4758,7 +4944,9 @@
       <c r="B185" t="s" s="3">
         <v>244</v>
       </c>
-      <c r="C185" s="2"/>
+      <c r="C185" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D185" t="s" s="3">
         <v>22</v>
       </c>
@@ -4769,7 +4957,9 @@
       <c r="B186" t="s" s="3">
         <v>245</v>
       </c>
-      <c r="C186" s="2"/>
+      <c r="C186" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D186" t="s" s="3">
         <v>22</v>
       </c>
@@ -4780,7 +4970,9 @@
       <c r="B187" t="s" s="3">
         <v>246</v>
       </c>
-      <c r="C187" s="2"/>
+      <c r="C187" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D187" t="s" s="3">
         <v>110</v>
       </c>
@@ -4791,7 +4983,9 @@
       <c r="B188" t="s" s="3">
         <v>247</v>
       </c>
-      <c r="C188" s="2"/>
+      <c r="C188" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D188" t="s" s="3">
         <v>17</v>
       </c>
@@ -4802,7 +4996,9 @@
       <c r="B189" t="s" s="3">
         <v>248</v>
       </c>
-      <c r="C189" s="2"/>
+      <c r="C189" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D189" t="s" s="3">
         <v>31</v>
       </c>
@@ -4837,7 +5033,9 @@
       <c r="B192" t="s" s="3">
         <v>252</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D192" t="s" s="3">
         <v>96</v>
       </c>
@@ -4848,7 +5046,9 @@
       <c r="B193" t="s" s="3">
         <v>253</v>
       </c>
-      <c r="C193" s="2"/>
+      <c r="C193" t="s" s="3">
+        <v>3</v>
+      </c>
       <c r="D193" t="s" s="3">
         <v>81</v>
       </c>
@@ -4859,7 +5059,9 @@
       <c r="B194" t="s" s="3">
         <v>254</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D194" t="s" s="3">
         <v>81</v>
       </c>
@@ -4870,7 +5072,9 @@
       <c r="B195" t="s" s="3">
         <v>255</v>
       </c>
-      <c r="C195" s="2"/>
+      <c r="C195" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D195" t="s" s="3">
         <v>22</v>
       </c>
@@ -4892,7 +5096,9 @@
       <c r="B197" t="s" s="3">
         <v>257</v>
       </c>
-      <c r="C197" s="2"/>
+      <c r="C197" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D197" t="s" s="3">
         <v>22</v>
       </c>
@@ -4903,7 +5109,9 @@
       <c r="B198" t="s" s="3">
         <v>258</v>
       </c>
-      <c r="C198" s="2"/>
+      <c r="C198" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D198" t="s" s="3">
         <v>259</v>
       </c>
@@ -4914,7 +5122,9 @@
       <c r="B199" t="s" s="3">
         <v>260</v>
       </c>
-      <c r="C199" s="2"/>
+      <c r="C199" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D199" t="s" s="3">
         <v>160</v>
       </c>
@@ -4925,7 +5135,9 @@
       <c r="B200" t="s" s="3">
         <v>261</v>
       </c>
-      <c r="C200" s="2"/>
+      <c r="C200" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D200" t="s" s="3">
         <v>251</v>
       </c>
@@ -4936,7 +5148,9 @@
       <c r="B201" t="s" s="3">
         <v>262</v>
       </c>
-      <c r="C201" s="2"/>
+      <c r="C201" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D201" t="s" s="3">
         <v>263</v>
       </c>
@@ -4947,7 +5161,9 @@
       <c r="B202" t="s" s="3">
         <v>264</v>
       </c>
-      <c r="C202" s="2"/>
+      <c r="C202" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D202" t="s" s="3">
         <v>242</v>
       </c>
@@ -4958,7 +5174,9 @@
       <c r="B203" t="s" s="3">
         <v>265</v>
       </c>
-      <c r="C203" s="2"/>
+      <c r="C203" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D203" t="s" s="3">
         <v>22</v>
       </c>
@@ -4969,7 +5187,9 @@
       <c r="B204" t="s" s="3">
         <v>266</v>
       </c>
-      <c r="C204" s="2"/>
+      <c r="C204" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D204" t="s" s="3">
         <v>22</v>
       </c>
@@ -4980,7 +5200,9 @@
       <c r="B205" t="s" s="3">
         <v>267</v>
       </c>
-      <c r="C205" s="2"/>
+      <c r="C205" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D205" t="s" s="3">
         <v>81</v>
       </c>
@@ -4991,7 +5213,9 @@
       <c r="B206" t="s" s="3">
         <v>268</v>
       </c>
-      <c r="C206" s="2"/>
+      <c r="C206" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D206" t="s" s="3">
         <v>160</v>
       </c>
@@ -5002,7 +5226,9 @@
       <c r="B207" t="s" s="3">
         <v>269</v>
       </c>
-      <c r="C207" s="2"/>
+      <c r="C207" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D207" t="s" s="3">
         <v>24</v>
       </c>
@@ -5013,7 +5239,9 @@
       <c r="B208" t="s" s="3">
         <v>270</v>
       </c>
-      <c r="C208" s="2"/>
+      <c r="C208" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D208" t="s" s="3">
         <v>22</v>
       </c>
@@ -5024,123 +5252,139 @@
       <c r="B209" t="s" s="3">
         <v>271</v>
       </c>
-      <c r="C209" s="2"/>
+      <c r="C209" t="s" s="3">
+        <v>3</v>
+      </c>
       <c r="D209" t="s" s="3">
         <v>96</v>
       </c>
       <c r="E209" s="2"/>
     </row>
     <row r="210" ht="19" customHeight="1">
-      <c r="A210" t="s" s="3">
+      <c r="A210" s="2"/>
+      <c r="B210" t="s" s="3">
         <v>272</v>
       </c>
-      <c r="B210" t="s" s="3">
-        <v>273</v>
-      </c>
       <c r="C210" t="s" s="3">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="D210" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="E210" t="s" s="3">
-        <v>276</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E210" s="2"/>
     </row>
     <row r="211" ht="19" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" t="s" s="3">
-        <v>277</v>
-      </c>
-      <c r="C211" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C211" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D211" t="s" s="3">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E211" s="2"/>
     </row>
     <row r="212" ht="19" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" t="s" s="3">
-        <v>278</v>
-      </c>
-      <c r="C212" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="C212" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D212" t="s" s="3">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213" ht="19" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" t="s" s="3">
-        <v>279</v>
-      </c>
-      <c r="C213" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C213" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D213" t="s" s="3">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="E213" s="2"/>
     </row>
     <row r="214" ht="19" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" t="s" s="3">
-        <v>280</v>
-      </c>
-      <c r="C214" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C214" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D214" t="s" s="3">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E214" s="2"/>
     </row>
     <row r="215" ht="19" customHeight="1">
-      <c r="A215" s="2"/>
+      <c r="A215" s="4"/>
       <c r="B215" t="s" s="3">
-        <v>281</v>
-      </c>
-      <c r="C215" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C215" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D215" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E215" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E215" s="5"/>
     </row>
     <row r="216" ht="19" customHeight="1">
-      <c r="A216" s="4"/>
+      <c r="A216" s="2"/>
       <c r="B216" t="s" s="3">
-        <v>282</v>
-      </c>
-      <c r="C216" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C216" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D216" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="E216" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="E216" s="2"/>
     </row>
     <row r="217" ht="19" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" t="s" s="3">
-        <v>283</v>
-      </c>
-      <c r="C217" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C217" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="D217" t="s" s="3">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="E217" s="2"/>
     </row>
     <row r="218" ht="19" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" t="s" s="3">
-        <v>285</v>
-      </c>
-      <c r="C218" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="C218" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D218" t="s" s="3">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" ht="19" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" t="s" s="3">
-        <v>286</v>
-      </c>
-      <c r="C219" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="C219" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D219" t="s" s="3">
         <v>9</v>
       </c>
@@ -5149,20 +5393,24 @@
     <row r="220" ht="19" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" t="s" s="3">
-        <v>287</v>
-      </c>
-      <c r="C220" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="C220" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D220" t="s" s="3">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E220" s="2"/>
     </row>
     <row r="221" ht="19" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" t="s" s="3">
-        <v>288</v>
-      </c>
-      <c r="C221" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C221" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D221" t="s" s="3">
         <v>61</v>
       </c>
@@ -5171,9 +5419,11 @@
     <row r="222" ht="19" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" t="s" s="3">
-        <v>289</v>
-      </c>
-      <c r="C222" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C222" t="s" s="3">
+        <v>8</v>
+      </c>
       <c r="D222" t="s" s="3">
         <v>61</v>
       </c>
@@ -5182,33 +5432,39 @@
     <row r="223" ht="19" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="C223" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C223" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="D223" t="s" s="3">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E223" s="2"/>
     </row>
     <row r="224" ht="19" customHeight="1">
-      <c r="A224" s="2"/>
+      <c r="A224" t="s" s="3">
+        <v>287</v>
+      </c>
       <c r="B224" t="s" s="3">
-        <v>291</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="E224" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C224" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" t="s" s="3">
+        <v>27</v>
+      </c>
     </row>
     <row r="225" ht="19" customHeight="1">
-      <c r="A225" t="s" s="3">
-        <v>292</v>
-      </c>
+      <c r="A225" s="2"/>
       <c r="B225" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="C225" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C225" t="s" s="3">
+        <v>53</v>
+      </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="3">
         <v>27</v>
@@ -5217,72 +5473,272 @@
     <row r="226" ht="19" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="C226" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s" s="3">
+        <v>291</v>
+      </c>
+      <c r="E226" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="227" ht="19" customHeight="1">
+      <c r="A227" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="B227" t="s" s="3">
         <v>294</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" t="s" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" ht="19" customHeight="1">
-      <c r="A227" s="2"/>
-      <c r="B227" t="s" s="3">
+      <c r="C227" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D227" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="E227" t="s" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" ht="19" customHeight="1">
+      <c r="A228" s="2"/>
+      <c r="B228" t="s" s="3">
         <v>295</v>
-      </c>
-      <c r="C227" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="D227" t="s" s="3">
-        <v>296</v>
-      </c>
-      <c r="E227" t="s" s="3">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="228" ht="19" customHeight="1">
-      <c r="A228" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="B228" t="s" s="3">
-        <v>299</v>
       </c>
       <c r="C228" t="s" s="3">
         <v>38</v>
       </c>
       <c r="D228" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="E228" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="229" ht="19" customHeight="1">
+      <c r="A229" s="2"/>
+      <c r="B229" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="C229" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="E229" t="s" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" ht="19" customHeight="1">
+      <c r="A230" s="2"/>
+      <c r="B230" t="s" s="3">
+        <v>298</v>
+      </c>
+      <c r="C230" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D230" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="E230" t="s" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" ht="19" customHeight="1">
+      <c r="A231" s="2"/>
+      <c r="B231" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="C231" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="E231" t="s" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" ht="19" customHeight="1">
+      <c r="A232" s="2"/>
+      <c r="B232" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="C232" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s" s="3">
+        <v>301</v>
+      </c>
+      <c r="E232" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" ht="19" customHeight="1">
+      <c r="A233" s="2"/>
+      <c r="B233" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="C233" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s" s="3">
+        <v>301</v>
+      </c>
+      <c r="E233" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="234" ht="19" customHeight="1">
+      <c r="A234" s="2"/>
+      <c r="B234" t="s" s="3">
+        <v>303</v>
+      </c>
+      <c r="C234" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D234" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" ht="19" customHeight="1">
-      <c r="A229" s="6"/>
-      <c r="B229" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="C229" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D229" t="s" s="3">
-        <v>301</v>
-      </c>
-      <c r="E229" t="s" s="3">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="230" ht="19" customHeight="1">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" ht="19" customHeight="1">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="2"/>
+      <c r="E234" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="235" ht="19" customHeight="1">
+      <c r="A235" s="2"/>
+      <c r="B235" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="C235" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="D235" s="6"/>
+      <c r="E235" t="s" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" ht="19" customHeight="1">
+      <c r="A236" s="2"/>
+      <c r="B236" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="C236" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="E236" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="237" ht="19" customHeight="1">
+      <c r="A237" s="2"/>
+      <c r="B237" t="s" s="3">
+        <v>307</v>
+      </c>
+      <c r="C237" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="E237" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="238" ht="19" customHeight="1">
+      <c r="A238" s="2"/>
+      <c r="B238" t="s" s="3">
+        <v>308</v>
+      </c>
+      <c r="C238" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="E238" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="239" ht="19" customHeight="1">
+      <c r="A239" s="2"/>
+      <c r="B239" t="s" s="3">
+        <v>309</v>
+      </c>
+      <c r="C239" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="E239" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="240" ht="19" customHeight="1">
+      <c r="A240" s="2"/>
+      <c r="B240" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="C240" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="E240" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="241" ht="19" customHeight="1">
+      <c r="A241" s="2"/>
+      <c r="B241" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="C241" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E241" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="242" ht="19" customHeight="1">
+      <c r="A242" s="2"/>
+      <c r="B242" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="C242" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="E242" t="s" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="243" ht="19" customHeight="1">
+      <c r="A243" s="2"/>
+      <c r="B243" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="C243" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="E243" t="s" s="3">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
